--- a/biology/Zoologie/Dallia/Dallia.xlsx
+++ b/biology/Zoologie/Dallia/Dallia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallia est un genre de poissons d'eau douce de la famille des Umbridae. Ces poissons sont originaires de Russie et d'Alaska.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (28 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (28 octobre 2023) :
 Dallia admirabilis Chereshnev, 1980
 Dallia delicatissima Smitt, 1881
 Dallia pectoralis Bean, 1880
-Des études scientifiques ont étudiées les séquences d'ADN mitochondriale des espèces Dallia pectoralis et Dallia admirabilis[2],[3],[4],[5]. Les résultats obtenus montrent que la spéciation au sein de ce genre n'est pas spécifique à la zone maritime russe. L'isolement génétique des populations de Dallia pectoralis dans les eaux alaskiennes a vraisemblablement été important, ce qui peut expliquer plusieurs différences au niveau des caryotypes de ces espèces.
+Des études scientifiques ont étudiées les séquences d'ADN mitochondriale des espèces Dallia pectoralis et Dallia admirabilis. Les résultats obtenus montrent que la spéciation au sein de ce genre n'est pas spécifique à la zone maritime russe. L'isolement génétique des populations de Dallia pectoralis dans les eaux alaskiennes a vraisemblablement été important, ce qui peut expliquer plusieurs différences au niveau des caryotypes de ces espèces.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dallia Bean, 1880[6],[7].
-Dallia a pour synonyme[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dallia Bean, 1880,.
+Dallia a pour synonyme :
 Dalia (graphie incorrecte)
-Les données moléculaires montrent qu'au sein de la famille des Umbridae, le genre Dallia est davantage lié aux genres Novumbra et Esox que Umbra[8],[9]. Le genre Dallia a divergé de Esox et Novumbra il y environ 66 millions d'années.
+Les données moléculaires montrent qu'au sein de la famille des Umbridae, le genre Dallia est davantage lié aux genres Novumbra et Esox que Umbra,. Le genre Dallia a divergé de Esox et Novumbra il y environ 66 millions d'années.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Dallia, a été donné en l'honneur du malacologiste et explorateur américain William Healey Dall (1845-1927) de l’United States Coast Survey pour sa contribution à la zoologie de l'Alaska[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Dallia, a été donné en l'honneur du malacologiste et explorateur américain William Healey Dall (1845-1927) de l’United States Coast Survey pour sa contribution à la zoologie de l'Alaska.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Tarleton H. Bean, « Descriptions of some genera and species of Alaskan fishes », Proceedings of the United States National Museum, Washington, Government Printing Office, vol. 2, no 100,‎ 1880, p. 353–359 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.2-100.353, lire en ligne)</t>
         </is>
